--- a/resource/file/人工检验表2.xlsx
+++ b/resource/file/人工检验表2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E5411-3539-4C91-8604-94A29D7890A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B054FAE-27E9-4DF4-9DB7-AE2C886241E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="人工检验表" sheetId="3" r:id="rId1"/>
+    <sheet name="人工检验表2" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">人工检验表!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">人工检验表2!$A$1:$P$39</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -431,6 +431,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -458,9 +539,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,84 +555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,27 +889,27 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="A29" sqref="A29:P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="5.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="5.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="1" customWidth="1"/>
     <col min="17" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="14.21875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -921,10 +921,10 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -939,28 +939,28 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
       <c r="P2" s="6" t="s">
         <v>2</v>
       </c>
@@ -968,185 +968,185 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A3" s="28">
+      <c r="A3" s="9">
         <v>5</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28">
+      <c r="I3" s="9">
         <v>6</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="25" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="28">
+      <c r="I5" s="9">
         <v>7</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="25" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="25" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="25" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A8" s="28">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="25" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="25" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1155,24 +1155,24 @@
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1181,607 +1181,607 @@
     </row>
     <row r="11" spans="1:18" ht="20.25" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="20.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="39" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="29" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="38" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
     </row>
     <row r="20" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="43" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-    </row>
-    <row r="27" spans="1:18" ht="31.8" customHeight="1">
-      <c r="A27" s="17" t="s">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" ht="31.9" customHeight="1">
+      <c r="A27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="17" t="s">
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="21" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="17" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="23" t="s">
+      <c r="M27" s="11"/>
+      <c r="N27" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="10"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="37"/>
     </row>
     <row r="30" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="13"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
     </row>
     <row r="31" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="13"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="13"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
     </row>
     <row r="33" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="13"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="13"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="13"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
     </row>
     <row r="37" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="13"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
     </row>
     <row r="38" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="13"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
     </row>
     <row r="39" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="16"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="2"/>
@@ -1803,11 +1803,56 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A29:P39"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J15:P17"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:P21"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H15:I19"/>
+    <mergeCell ref="J18:P19"/>
+    <mergeCell ref="A15:B19"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="C18:G19"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:O12"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="H24:L24"/>
@@ -1824,57 +1869,12 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H15:I19"/>
-    <mergeCell ref="J18:P19"/>
-    <mergeCell ref="A15:B19"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="C18:G19"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:P21"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="J5:K9"/>
     <mergeCell ref="L9:O9"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J15:P17"/>
-    <mergeCell ref="A29:P39"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.37916666666666698" top="0.31805555555555598" bottom="0.34930555555555598" header="0.179166666666667" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="2" orientation="portrait" r:id="rId1"/>
